--- a/dataset/2. hybrelastic/netcpu.xlsx
+++ b/dataset/2. hybrelastic/netcpu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I851169\source\repos\dev\autoscaling\dataset\2. hybrelastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5D935E-4A2C-47C7-8C2F-D7A603AD0D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8541033C-346D-4681-9441-05CDFD91C3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1665" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,2425 +351,3082 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>50.378</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>25.728000000000002</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.16669999999999999</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>28.175999999999998</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>28.251999999999999</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>25.576000000000001</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>25.776</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.16389999999999999</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>26.641999999999999</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>28.492999999999999</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.2487</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>30.978000000000002</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.33339999999999997</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>25.832000000000001</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.16389999999999999</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>25.327999999999999</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.33900000000000008</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>25.655999999999999</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.24729999999999999</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>25.628</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.33339999999999997</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>25.527999999999999</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.16669999999999999</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>27.66</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.32790000000000002</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>25.58</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.2487</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>25.504000000000001</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.2487</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>27.898</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.49180000000000001</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>21.228000000000002</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>22.881399999999999</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>163.25</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>65.714500000000001</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>87.284000000000006</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>47.569899999999997</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>126.438</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>52.456949999999999</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>95.712999999999994</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>8.6694999999999993</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>75.116</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>25.166266666666669</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>71.332666666666668</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>27.54003333333333</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>70.23</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>26.739233333333331</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>96.235666666666688</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>32.762700000000002</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>47.926666666666669</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>21.252400000000002</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>70.304000000000002</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>23.654900000000001</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>25.672000000000001</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.38896666666666668</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>25.634666666666661</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.33239999999999997</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>28.59066666666666</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>0.47226666666666661</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>27.586666666666659</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0.33710000000000001</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>27.052666666666671</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>0.38613333333333327</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>26.687999999999999</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.36063333333333342</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>25.475999999999999</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>0.50285000000000002</v>
       </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>26.782499999999999</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>0.375</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>25.44</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.375</v>
       </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>47.771999999999998</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>25.271999999999998</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>25.352</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.24729999999999999</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>27.652999999999999</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.2487</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>25.327999999999999</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>19.143999999999998</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>32.083300000000001</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>95.111999999999995</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>68.916700000000006</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>235.27600000000001</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>73.5</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>123.798</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>55.04945</v>
       </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>94.492000000000004</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>49.924700000000001</v>
       </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>98.216999999999999</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>26.067499999999999</v>
       </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>94.560500000000005</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>42.341550000000012</v>
       </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
         <v>97.72</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>25.4863</v>
       </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
         <v>95.46350000000001</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>51.915950000000002</v>
       </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
         <v>155.56700000000001</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>49.416649999999997</v>
       </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
         <v>97.956000000000003</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>36.666649999999997</v>
       </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
         <v>129.715</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>44.82705</v>
       </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
         <v>93.497</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>53.146900000000002</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
         <v>98.619</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>36.3934</v>
       </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
         <v>100.982</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>1.8644000000000001</v>
       </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
         <v>25.4</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>0.29310000000000003</v>
       </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
         <v>27.172999999999998</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>0.29039999999999999</v>
       </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
         <v>25.632000000000001</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>0.3448</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
         <v>25.632000000000001</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>0.3448</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
         <v>25.998999999999999</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
         <v>32.572000000000003</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>0.49180000000000001</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
         <v>25.776</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>0.16669999999999999</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
         <v>33.58</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>0.42089999999999989</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
         <v>25.472000000000001</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>0.32790000000000002</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
         <v>38.792000000000002</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>0.5</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
         <v>30.898</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>0.50849999999999995</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
         <v>25.175999999999998</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
         <v>41.106999999999999</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>0.41820000000000002</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
         <v>36.463999999999999</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>0.32790000000000002</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
         <v>168.708</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>84.559299999999979</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
         <v>162.97499999999999</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>74.392700000000005</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
         <v>176.73599999999999</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>57.833300000000001</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
         <v>89.423999999999992</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>49.827649999999991</v>
       </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
         <v>140.095</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>25.469650000000001</v>
       </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
         <v>133.11799999999999</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>56.629600000000003</v>
       </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
         <v>135.559</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>50.333350000000003</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
         <v>141.33099999999999</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>49.772350000000003</v>
       </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
         <v>100.649</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>31.193300000000001</v>
       </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
         <v>123.717</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>18.305099999999999</v>
       </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
         <v>127.271</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>40.633450000000003</v>
       </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
         <v>130.16050000000001</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>36.308300000000003</v>
       </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
         <v>142.107</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>20.583349999999999</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
         <v>79.816500000000005</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>0.69879999999999998</v>
       </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
         <v>67.292000000000002</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>0.63005</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
         <v>77.974999999999994</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>0.67230000000000001</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
         <v>71.117999999999995</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>0.65569999999999995</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
         <v>77.694000000000003</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>0.66670000000000007</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
         <v>79.596999999999994</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>0.66670000000000007</v>
       </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
         <v>64.983999999999995</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>0.5</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
         <v>76.513999999999996</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>0.66670000000000007</v>
       </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
         <v>75.545000000000002</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>0.57789999999999997</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
         <v>84.9</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>0.67800000000000016</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
         <v>63.426000000000002</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>0.67800000000000016</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
         <v>73.417000000000002</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>0.58489999999999998</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
         <v>73.293999999999997</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>0.65569999999999995</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
         <v>68.718000000000004</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>0.66670000000000007</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
         <v>74.572000000000003</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>17.310600000000001</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
         <v>220.63200000000001</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>41.311500000000002</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
         <v>76.402000000000001</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>37</v>
       </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
         <v>208.26</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>93</v>
       </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
         <v>151.19</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>57.689850000000007</v>
       </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
         <v>104.708</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>50.245899999999999</v>
       </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
         <v>134.846</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>43.158199999999987</v>
       </c>
-      <c r="C107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
         <v>93.244500000000002</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>42.24015</v>
       </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
         <v>95.722999999999999</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>43.694200000000002</v>
       </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
         <v>131.3235</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>27.756350000000001</v>
       </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
         <v>93.563500000000005</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>42.386600000000001</v>
       </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
         <v>94.430999999999997</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>39.260899999999999</v>
       </c>
-      <c r="C112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
         <v>93.02600000000001</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>54.192149999999998</v>
       </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
         <v>94.992000000000004</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>26.474550000000001</v>
       </c>
-      <c r="C114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
         <v>61.034999999999997</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>2.0832999999999999</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
         <v>25.84</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>0.49180000000000001</v>
       </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
         <v>25.84</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>0.49180000000000001</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
         <v>25.475999999999999</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>0.3306</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
         <v>25.928000000000001</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>0.33900000000000008</v>
       </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
         <v>25.504000000000001</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>0.41670000000000001</v>
       </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
         <v>25.504000000000001</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
         <v>26.641999999999999</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
         <v>25.175999999999998</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>0.16669999999999999</v>
       </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
         <v>26.760999999999999</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>0.41670000000000001</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
         <v>25.495999999999999</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>0.3306</v>
       </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
         <v>25.472000000000001</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
         <v>25.347999999999999</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
         <v>25.899000000000001</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>0.33339999999999997</v>
       </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
         <v>25.456</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>0.33339999999999997</v>
       </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
         <v>21.652000000000001</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>62</v>
       </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
         <v>161.184</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>49.154400000000003</v>
       </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
         <v>159.41200000000001</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>90.737700000000004</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
         <v>89.122</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>39.417099999999998</v>
       </c>
-      <c r="C133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
         <v>94.183999999999997</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>30.081900000000001</v>
       </c>
-      <c r="C134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
         <v>92.494499999999988</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>35.416649999999997</v>
       </c>
-      <c r="C135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
         <v>124.789</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>35</v>
       </c>
-      <c r="C136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
         <v>90.181000000000012</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>34.581949999999999</v>
       </c>
-      <c r="C137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
         <v>92.78</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>35.33475</v>
       </c>
-      <c r="C138">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
         <v>127.90649999999999</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>41</v>
       </c>
-      <c r="C139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
         <v>129.7535</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>51.894500000000008</v>
       </c>
-      <c r="C140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
         <v>60.421000000000006</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>12.792400000000001</v>
       </c>
-      <c r="C141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
         <v>28.646999999999998</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>0.25145000000000001</v>
       </c>
-      <c r="C142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
         <v>25.58</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>0.33345000000000002</v>
       </c>
-      <c r="C143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
         <v>27.568000000000001</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>0.41820000000000002</v>
       </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
         <v>25.416</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>0.33900000000000008</v>
       </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
         <v>25.276</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
         <v>25.463999999999999</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>0.32790000000000002</v>
       </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
         <v>25.352</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>0.3362</v>
       </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
         <v>25.324000000000002</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
         <v>27.885000000000002</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>0.3306</v>
       </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
         <v>25.472000000000001</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>0.33900000000000008</v>
       </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
         <v>25.295999999999999</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
         <v>25.376000000000001</v>
       </c>
-      <c r="B153">
+      <c r="C153">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
         <v>23.277999999999999</v>
       </c>
-      <c r="B154">
+      <c r="C154">
         <v>15.495900000000001</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
         <v>164.13399999999999</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>55.084699999999991</v>
       </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
         <v>88.962000000000003</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>56.694899999999997</v>
       </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
         <v>151.59399999999999</v>
       </c>
-      <c r="B157">
+      <c r="C157">
         <v>70.301500000000004</v>
       </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
         <v>25.346</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>56.311500000000002</v>
       </c>
-      <c r="C158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
         <v>227.52600000000001</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>48.944000000000003</v>
       </c>
-      <c r="C159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
         <v>59.252000000000002</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>35.6342</v>
       </c>
-      <c r="C160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
         <v>126.61</v>
       </c>
-      <c r="B161">
+      <c r="C161">
         <v>59.169400000000003</v>
       </c>
-      <c r="C161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
         <v>92.402999999999992</v>
       </c>
-      <c r="B162">
+      <c r="C162">
         <v>53.926000000000002</v>
       </c>
-      <c r="C162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
         <v>160.82599999999999</v>
       </c>
-      <c r="B163">
+      <c r="C163">
         <v>41.02825</v>
       </c>
-      <c r="C163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
         <v>90.45</v>
       </c>
-      <c r="B164">
+      <c r="C164">
         <v>51.411200000000001</v>
       </c>
-      <c r="C164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
         <v>91.98</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>40.505650000000003</v>
       </c>
-      <c r="C165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
         <v>93.903999999999996</v>
       </c>
-      <c r="B166">
+      <c r="C166">
         <v>32.916649999999997</v>
       </c>
-      <c r="C166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
         <v>25.707999999999998</v>
       </c>
-      <c r="B167">
+      <c r="C167">
         <v>0.33615</v>
       </c>
-      <c r="C167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
         <v>25.488</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>0.41954999999999998</v>
       </c>
-      <c r="C168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
         <v>25.68</v>
       </c>
-      <c r="B169">
+      <c r="C169">
         <v>0.32790000000000002</v>
       </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
         <v>25.68</v>
       </c>
-      <c r="B170">
+      <c r="C170">
         <v>0.32790000000000002</v>
       </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
         <v>25.783999999999999</v>
       </c>
-      <c r="B171">
+      <c r="C171">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
         <v>25.576000000000001</v>
       </c>
-      <c r="B172">
+      <c r="C172">
         <v>0.41949999999999998</v>
       </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
         <v>25.623999999999999</v>
       </c>
-      <c r="B173">
+      <c r="C173">
         <v>0.49180000000000001</v>
       </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
         <v>33.921999999999997</v>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>0.50849999999999995</v>
       </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
         <v>25.423999999999999</v>
       </c>
-      <c r="B175">
+      <c r="C175">
         <v>0.3226</v>
       </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
         <v>25.984000000000002</v>
       </c>
-      <c r="B176">
+      <c r="C176">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
         <v>25.327999999999999</v>
       </c>
-      <c r="B177">
+      <c r="C177">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
         <v>25.68</v>
       </c>
-      <c r="B178">
+      <c r="C178">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
         <v>25.524000000000001</v>
       </c>
-      <c r="B179">
+      <c r="C179">
         <v>0.41670000000000001</v>
       </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
         <v>25.776</v>
       </c>
-      <c r="B180">
+      <c r="C180">
         <v>0.5</v>
       </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
         <v>25.623999999999999</v>
       </c>
-      <c r="B181">
+      <c r="C181">
         <v>0.33900000000000008</v>
       </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
         <v>201.4</v>
       </c>
-      <c r="B182">
+      <c r="C182">
         <v>47.457599999999999</v>
       </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
         <v>159.81</v>
       </c>
-      <c r="B183">
+      <c r="C183">
         <v>86.774200000000008</v>
       </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
         <v>157.46199999999999</v>
       </c>
-      <c r="B184">
+      <c r="C184">
         <v>75.333299999999994</v>
       </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
         <v>157.64400000000001</v>
       </c>
-      <c r="B185">
+      <c r="C185">
         <v>48.610149999999997</v>
       </c>
-      <c r="C185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
         <v>159.977</v>
       </c>
-      <c r="B186">
+      <c r="C186">
         <v>26.1709</v>
       </c>
-      <c r="C186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
         <v>106.4645</v>
       </c>
-      <c r="B187">
+      <c r="C187">
         <v>36.25</v>
       </c>
-      <c r="C187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
         <v>102.708</v>
       </c>
-      <c r="B188">
+      <c r="C188">
         <v>36.416649999999997</v>
       </c>
-      <c r="C188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
         <v>61.842500000000001</v>
       </c>
-      <c r="B189">
+      <c r="C189">
         <v>39.489450000000012</v>
       </c>
-      <c r="C189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
         <v>161.4</v>
       </c>
-      <c r="B190">
+      <c r="C190">
         <v>29.911000000000001</v>
       </c>
-      <c r="C190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
         <v>93.287999999999997</v>
       </c>
-      <c r="B191">
+      <c r="C191">
         <v>35.870199999999997</v>
       </c>
-      <c r="C191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
         <v>95.677999999999997</v>
       </c>
-      <c r="B192">
+      <c r="C192">
         <v>38.333299999999987</v>
       </c>
-      <c r="C192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
         <v>94.064999999999998</v>
       </c>
-      <c r="B193">
+      <c r="C193">
         <v>34.248649999999998</v>
       </c>
-      <c r="C193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
         <v>25.7</v>
       </c>
-      <c r="B194">
+      <c r="C194">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
         <v>25.527999999999999</v>
       </c>
-      <c r="B195">
+      <c r="C195">
         <v>0.41539999999999999</v>
       </c>
-      <c r="C195">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
         <v>25.472000000000001</v>
       </c>
-      <c r="B196">
+      <c r="C196">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
         <v>25.527999999999999</v>
       </c>
-      <c r="B197">
+      <c r="C197">
         <v>0.49180000000000001</v>
       </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
         <v>25.271999999999998</v>
       </c>
-      <c r="B198">
+      <c r="C198">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
         <v>25.48</v>
       </c>
-      <c r="B199">
+      <c r="C199">
         <v>0.33900000000000008</v>
       </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
         <v>25.527999999999999</v>
       </c>
-      <c r="B200">
+      <c r="C200">
         <v>0.32790000000000002</v>
       </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
         <v>25.423999999999999</v>
       </c>
-      <c r="B201">
+      <c r="C201">
         <v>0.32790000000000002</v>
       </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
         <v>25.623999999999999</v>
       </c>
-      <c r="B202">
+      <c r="C202">
         <v>0.5</v>
       </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
         <v>25.527999999999999</v>
       </c>
-      <c r="B203">
+      <c r="C203">
         <v>0.49180000000000001</v>
       </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
         <v>25.48</v>
       </c>
-      <c r="B204">
+      <c r="C204">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
         <v>25.428000000000001</v>
       </c>
-      <c r="B205">
+      <c r="C205">
         <v>0.41539999999999999</v>
       </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
         <v>67.706000000000003</v>
       </c>
-      <c r="B206">
+      <c r="C206">
         <v>26.3504</v>
       </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
         <v>113.562</v>
       </c>
-      <c r="B207">
+      <c r="C207">
         <v>54</v>
       </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
         <v>159.33799999999999</v>
       </c>
-      <c r="B208">
+      <c r="C208">
         <v>69.666700000000006</v>
       </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
         <v>165.80799999999999</v>
       </c>
-      <c r="B209">
+      <c r="C209">
         <v>100</v>
       </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
         <v>92.967999999999989</v>
       </c>
-      <c r="B210">
+      <c r="C210">
         <v>37.366149999999998</v>
       </c>
-      <c r="C210">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
         <v>93.027999999999992</v>
       </c>
-      <c r="B211">
+      <c r="C211">
         <v>36.212850000000003</v>
       </c>
-      <c r="C211">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
         <v>128.84399999999999</v>
       </c>
-      <c r="B212">
+      <c r="C212">
         <v>40.763399999999997</v>
       </c>
-      <c r="C212">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
         <v>126.996</v>
       </c>
-      <c r="B213">
+      <c r="C213">
         <v>59.791649999999997</v>
       </c>
-      <c r="C213">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
         <v>88.402000000000001</v>
       </c>
-      <c r="B214">
+      <c r="C214">
         <v>49.295199999999987</v>
       </c>
-      <c r="C214">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
         <v>92.308999999999997</v>
       </c>
-      <c r="B215">
+      <c r="C215">
         <v>26.5</v>
       </c>
-      <c r="C215">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
         <v>94.591499999999996</v>
       </c>
-      <c r="B216">
+      <c r="C216">
         <v>29.879750000000001</v>
       </c>
-      <c r="C216">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
         <v>95.813999999999993</v>
       </c>
-      <c r="B217">
+      <c r="C217">
         <v>23.5943</v>
       </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
         <v>95.813999999999993</v>
       </c>
-      <c r="B218">
+      <c r="C218">
         <v>23.5943</v>
       </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
         <v>166.08799999999999</v>
       </c>
-      <c r="B219">
+      <c r="C219">
         <v>23</v>
       </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B220">
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="C220">
         <v>0.5</v>
       </c>
     </row>
